--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dcn-Met.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Dcn-Met.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H2">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I2">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J2">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.500998666666666</v>
+        <v>2.912114666666667</v>
       </c>
       <c r="N2">
-        <v>7.502996</v>
+        <v>8.736344000000001</v>
       </c>
       <c r="O2">
-        <v>0.08179813614512803</v>
+        <v>0.04564398277650125</v>
       </c>
       <c r="P2">
-        <v>0.1013554923061644</v>
+        <v>0.06163513710720567</v>
       </c>
       <c r="Q2">
-        <v>19.35239254884533</v>
+        <v>18.21678571539734</v>
       </c>
       <c r="R2">
-        <v>174.171532939608</v>
+        <v>163.951071438576</v>
       </c>
       <c r="S2">
-        <v>0.0004207422450384358</v>
+        <v>0.0001975710290076181</v>
       </c>
       <c r="T2">
-        <v>0.0005285209912958215</v>
+        <v>0.0002670198302192138</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H3">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I3">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J3">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.586944</v>
       </c>
       <c r="O3">
-        <v>0.02820302683245761</v>
+        <v>0.01351577128599483</v>
       </c>
       <c r="P3">
-        <v>0.03494617119461054</v>
+        <v>0.01825095808139687</v>
       </c>
       <c r="Q3">
-        <v>6.672475340501333</v>
+        <v>5.394224918997333</v>
       </c>
       <c r="R3">
-        <v>60.05227806451199</v>
+        <v>48.54802427097599</v>
       </c>
       <c r="S3">
-        <v>0.0001450669341085496</v>
+        <v>5.850332679952661E-05</v>
       </c>
       <c r="T3">
-        <v>0.0001822277670555572</v>
+        <v>7.90680114778692E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H4">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I4">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J4">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.273522333333333</v>
+        <v>7.668087</v>
       </c>
       <c r="N4">
-        <v>12.820567</v>
+        <v>23.004261</v>
       </c>
       <c r="O4">
-        <v>0.1397706309484552</v>
+        <v>0.12018827244785</v>
       </c>
       <c r="P4">
-        <v>0.1731888008375807</v>
+        <v>0.1622956674765719</v>
       </c>
       <c r="Q4">
-        <v>33.06794316334067</v>
+        <v>47.96785625406599</v>
       </c>
       <c r="R4">
-        <v>297.6114884700659</v>
+        <v>431.710706286594</v>
       </c>
       <c r="S4">
-        <v>0.0007189333623855969</v>
+        <v>0.0005202377009570384</v>
       </c>
       <c r="T4">
-        <v>0.000903097746528786</v>
+        <v>0.0007031080583065961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H5">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I5">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J5">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.6992215</v>
+        <v>49.6589625</v>
       </c>
       <c r="N5">
-        <v>35.398443</v>
+        <v>99.317925</v>
       </c>
       <c r="O5">
-        <v>0.5788740910643337</v>
+        <v>0.7783460091712006</v>
       </c>
       <c r="P5">
-        <v>0.4781858629721645</v>
+        <v>0.7006905777265834</v>
       </c>
       <c r="Q5">
-        <v>136.954204271319</v>
+        <v>310.642533780075</v>
       </c>
       <c r="R5">
-        <v>821.7252256279139</v>
+        <v>1863.85520268045</v>
       </c>
       <c r="S5">
-        <v>0.002977534649895542</v>
+        <v>0.003369088598357294</v>
       </c>
       <c r="T5">
-        <v>0.002493513282519227</v>
+        <v>0.003035578208827927</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.737865999999999</v>
+        <v>6.255517999999999</v>
       </c>
       <c r="H6">
-        <v>23.213598</v>
+        <v>18.766554</v>
       </c>
       <c r="I6">
-        <v>0.005143665428903487</v>
+        <v>0.004328522994477444</v>
       </c>
       <c r="J6">
-        <v>0.005214527395311927</v>
+        <v>0.004332266345976813</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.239195333333334</v>
+        <v>2.699147</v>
       </c>
       <c r="N6">
-        <v>15.717586</v>
+        <v>8.097441</v>
       </c>
       <c r="O6">
-        <v>0.1713541150096253</v>
+        <v>0.04230596431845346</v>
       </c>
       <c r="P6">
-        <v>0.2123236726894799</v>
+        <v>0.05712765960824214</v>
       </c>
       <c r="Q6">
-        <v>40.54019143715867</v>
+        <v>16.884562643146</v>
       </c>
       <c r="R6">
-        <v>364.861722934428</v>
+        <v>151.961063788314</v>
       </c>
       <c r="S6">
-        <v>0.0008813882374753617</v>
+        <v>0.0001831223393559681</v>
       </c>
       <c r="T6">
-        <v>0.001107167607912536</v>
+        <v>0.0002474922371452063</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>4295.770264</v>
       </c>
       <c r="I7">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J7">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.500998666666666</v>
+        <v>2.912114666666667</v>
       </c>
       <c r="N7">
-        <v>7.502996</v>
+        <v>8.736344000000001</v>
       </c>
       <c r="O7">
-        <v>0.08179813614512803</v>
+        <v>0.04564398277650125</v>
       </c>
       <c r="P7">
-        <v>0.1013554923061644</v>
+        <v>0.06163513710720567</v>
       </c>
       <c r="Q7">
-        <v>3581.238567523437</v>
+        <v>4169.925196808313</v>
       </c>
       <c r="R7">
-        <v>32231.14710771094</v>
+        <v>37529.32677127482</v>
       </c>
       <c r="S7">
-        <v>0.07786005534535034</v>
+        <v>0.0452251250516641</v>
       </c>
       <c r="T7">
-        <v>0.0978049485611146</v>
+        <v>0.06112234811750879</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>4295.770264</v>
       </c>
       <c r="I8">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J8">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.586944</v>
       </c>
       <c r="O8">
-        <v>0.02820302683245761</v>
+        <v>0.01351577128599483</v>
       </c>
       <c r="P8">
-        <v>0.03494617119461054</v>
+        <v>0.01825095808139687</v>
       </c>
       <c r="Q8">
         <v>1234.768567759246</v>
@@ -948,10 +948,10 @@
         <v>11112.91710983322</v>
       </c>
       <c r="S8">
-        <v>0.02684522329684329</v>
+        <v>0.01339174211794454</v>
       </c>
       <c r="T8">
-        <v>0.03372198583745534</v>
+        <v>0.01809911465579888</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>4295.770264</v>
       </c>
       <c r="I9">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J9">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.273522333333333</v>
+        <v>7.668087</v>
       </c>
       <c r="N9">
-        <v>12.820567</v>
+        <v>23.004261</v>
       </c>
       <c r="O9">
-        <v>0.1397706309484552</v>
+        <v>0.12018827244785</v>
       </c>
       <c r="P9">
-        <v>0.1731888008375807</v>
+        <v>0.1622956674765719</v>
       </c>
       <c r="Q9">
-        <v>6119.356720691076</v>
+        <v>10980.11337212165</v>
       </c>
       <c r="R9">
-        <v>55074.21048621968</v>
+        <v>98821.02034909489</v>
       </c>
       <c r="S9">
-        <v>0.133041528501251</v>
+        <v>0.1190853497122045</v>
       </c>
       <c r="T9">
-        <v>0.1671218931689852</v>
+        <v>0.1609454079450204</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>4295.770264</v>
       </c>
       <c r="I10">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J10">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.6992215</v>
+        <v>49.6589625</v>
       </c>
       <c r="N10">
-        <v>35.398443</v>
+        <v>99.317925</v>
       </c>
       <c r="O10">
-        <v>0.5788740910643337</v>
+        <v>0.7783460091712006</v>
       </c>
       <c r="P10">
-        <v>0.4781858629721645</v>
+        <v>0.7006905777265834</v>
       </c>
       <c r="Q10">
-        <v>25343.92980521649</v>
+        <v>71107.83148286369</v>
       </c>
       <c r="R10">
-        <v>152063.5788312989</v>
+        <v>426646.9888971822</v>
       </c>
       <c r="S10">
-        <v>0.5510048381578297</v>
+        <v>0.7712034195305488</v>
       </c>
       <c r="T10">
-        <v>0.4614347251096159</v>
+        <v>0.6948610066360287</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>4295.770264</v>
       </c>
       <c r="I11">
-        <v>0.9518561059534332</v>
+        <v>0.9908233747504438</v>
       </c>
       <c r="J11">
-        <v>0.964969399642156</v>
+        <v>0.9916802490630473</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.239195333333334</v>
+        <v>2.699147</v>
       </c>
       <c r="N11">
-        <v>15.717586</v>
+        <v>8.097441</v>
       </c>
       <c r="O11">
-        <v>0.1713541150096253</v>
+        <v>0.04230596431845346</v>
       </c>
       <c r="P11">
-        <v>0.2123236726894799</v>
+        <v>0.05712765960824214</v>
       </c>
       <c r="Q11">
-        <v>7502.1265067403</v>
+        <v>3864.971806921602</v>
       </c>
       <c r="R11">
-        <v>67519.1385606627</v>
+        <v>34784.74626229442</v>
       </c>
       <c r="S11">
-        <v>0.1631044606521587</v>
+        <v>0.04191773833808191</v>
       </c>
       <c r="T11">
-        <v>0.2048858469649851</v>
+        <v>0.05665237170869056</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H12">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I12">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J12">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.500998666666666</v>
+        <v>2.912114666666667</v>
       </c>
       <c r="N12">
-        <v>7.502996</v>
+        <v>8.736344000000001</v>
       </c>
       <c r="O12">
-        <v>0.08179813614512803</v>
+        <v>0.04564398277650125</v>
       </c>
       <c r="P12">
-        <v>0.1013554923061644</v>
+        <v>0.06163513710720567</v>
       </c>
       <c r="Q12">
-        <v>5.663760746867111</v>
+        <v>6.402344278369778</v>
       </c>
       <c r="R12">
-        <v>50.97384672180399</v>
+        <v>57.621098505328</v>
       </c>
       <c r="S12">
-        <v>0.0001231363722073537</v>
+        <v>6.9436933984979E-05</v>
       </c>
       <c r="T12">
-        <v>0.0001546793987793086</v>
+        <v>9.38449246164372E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H13">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I13">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J13">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.586944</v>
       </c>
       <c r="O13">
-        <v>0.02820302683245761</v>
+        <v>0.01351577128599483</v>
       </c>
       <c r="P13">
-        <v>0.03494617119461054</v>
+        <v>0.01825095808139687</v>
       </c>
       <c r="Q13">
-        <v>1.952797506695111</v>
+        <v>1.895816615836444</v>
       </c>
       <c r="R13">
-        <v>17.575177560256</v>
+        <v>17.062349542528</v>
       </c>
       <c r="S13">
-        <v>4.245596016092509E-05</v>
+        <v>2.056117063966775E-05</v>
       </c>
       <c r="T13">
-        <v>5.333162147437367E-05</v>
+        <v>2.778869108942419E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H14">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I14">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J14">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.273522333333333</v>
+        <v>7.668087</v>
       </c>
       <c r="N14">
-        <v>12.820567</v>
+        <v>23.004261</v>
       </c>
       <c r="O14">
-        <v>0.1397706309484552</v>
+        <v>0.12018827244785</v>
       </c>
       <c r="P14">
-        <v>0.1731888008375807</v>
+        <v>0.1622956674765719</v>
       </c>
       <c r="Q14">
-        <v>9.677817251559222</v>
+        <v>16.858447743298</v>
       </c>
       <c r="R14">
-        <v>87.10035526403298</v>
+        <v>151.726029689682</v>
       </c>
       <c r="S14">
-        <v>0.0002104063643405002</v>
+        <v>0.0001828391089488036</v>
       </c>
       <c r="T14">
-        <v>0.0002643047651324677</v>
+        <v>0.0002471094475448593</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H15">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I15">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J15">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.6992215</v>
+        <v>49.6589625</v>
       </c>
       <c r="N15">
-        <v>35.398443</v>
+        <v>99.317925</v>
       </c>
       <c r="O15">
-        <v>0.5788740910643337</v>
+        <v>0.7783460091712006</v>
       </c>
       <c r="P15">
-        <v>0.4781858629721645</v>
+        <v>0.7006905777265834</v>
       </c>
       <c r="Q15">
-        <v>40.0816511091595</v>
+        <v>109.176255341475</v>
       </c>
       <c r="R15">
-        <v>240.489906654957</v>
+        <v>655.0575320488499</v>
       </c>
       <c r="S15">
-        <v>0.000871419067691518</v>
+        <v>0.001184076348484577</v>
       </c>
       <c r="T15">
-        <v>0.0007297631347482561</v>
+        <v>0.001066863116274492</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.264599666666667</v>
+        <v>2.198520666666667</v>
       </c>
       <c r="H16">
-        <v>6.793799</v>
+        <v>6.595561999999999</v>
       </c>
       <c r="I16">
-        <v>0.001505368924163289</v>
+        <v>0.00152127246049017</v>
       </c>
       <c r="J16">
-        <v>0.001526107715130708</v>
+        <v>0.001522588072663927</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>5.239195333333334</v>
+        <v>2.699147</v>
       </c>
       <c r="N16">
-        <v>15.717586</v>
+        <v>8.097441</v>
       </c>
       <c r="O16">
-        <v>0.1713541150096253</v>
+        <v>0.04230596431845346</v>
       </c>
       <c r="P16">
-        <v>0.2123236726894799</v>
+        <v>0.05712765960824214</v>
       </c>
       <c r="Q16">
-        <v>11.86468000546822</v>
+        <v>5.934130461871333</v>
       </c>
       <c r="R16">
-        <v>106.782120049214</v>
+        <v>53.407174156842</v>
       </c>
       <c r="S16">
-        <v>0.0002579511597629922</v>
+        <v>6.435889843214304E-05</v>
       </c>
       <c r="T16">
-        <v>0.0003240287949963026</v>
+        <v>8.698189313871429E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H17">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I17">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J17">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.500998666666666</v>
+        <v>2.912114666666667</v>
       </c>
       <c r="N17">
-        <v>7.502996</v>
+        <v>8.736344000000001</v>
       </c>
       <c r="O17">
-        <v>0.08179813614512803</v>
+        <v>0.04564398277650125</v>
       </c>
       <c r="P17">
-        <v>0.1013554923061644</v>
+        <v>0.06163513710720567</v>
       </c>
       <c r="Q17">
-        <v>153.3844925256026</v>
+        <v>10.90934649157867</v>
       </c>
       <c r="R17">
-        <v>920.3069551536158</v>
+        <v>65.456078949472</v>
       </c>
       <c r="S17">
-        <v>0.003334747141802565</v>
+        <v>0.0001183178440925539</v>
       </c>
       <c r="T17">
-        <v>0.002792658111373932</v>
+        <v>0.0001066054093733178</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H18">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I18">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J18">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.586944</v>
       </c>
       <c r="O18">
-        <v>0.02820302683245761</v>
+        <v>0.01351577128599483</v>
       </c>
       <c r="P18">
-        <v>0.03494617119461054</v>
+        <v>0.01825095808139687</v>
       </c>
       <c r="Q18">
-        <v>52.88515316177066</v>
+        <v>3.230398030378667</v>
       </c>
       <c r="R18">
-        <v>317.310918970624</v>
+        <v>19.382388182272</v>
       </c>
       <c r="S18">
-        <v>0.001149781248717618</v>
+        <v>3.503543780649753E-05</v>
       </c>
       <c r="T18">
-        <v>0.0009628753827497875</v>
+        <v>3.156723500652541E-05</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H19">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I19">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J19">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.273522333333333</v>
+        <v>7.668087</v>
       </c>
       <c r="N19">
-        <v>12.820567</v>
+        <v>23.004261</v>
       </c>
       <c r="O19">
-        <v>0.1397706309484552</v>
+        <v>0.12018827244785</v>
       </c>
       <c r="P19">
-        <v>0.1731888008375807</v>
+        <v>0.1622956674765719</v>
       </c>
       <c r="Q19">
-        <v>262.0921246906553</v>
+        <v>28.726141510878</v>
       </c>
       <c r="R19">
-        <v>1572.552748143932</v>
+        <v>172.356849065268</v>
       </c>
       <c r="S19">
-        <v>0.00569817032549908</v>
+        <v>0.0003115507546935444</v>
       </c>
       <c r="T19">
-        <v>0.004771888512930428</v>
+        <v>0.0002807099470025046</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H20">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I20">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J20">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.6992215</v>
+        <v>49.6589625</v>
       </c>
       <c r="N20">
-        <v>35.398443</v>
+        <v>99.317925</v>
       </c>
       <c r="O20">
-        <v>0.5788740910643337</v>
+        <v>0.7783460091712006</v>
       </c>
       <c r="P20">
-        <v>0.4781858629721645</v>
+        <v>0.7006905777265834</v>
       </c>
       <c r="Q20">
-        <v>1085.480829741507</v>
+        <v>186.032107363725</v>
       </c>
       <c r="R20">
-        <v>4341.923318966028</v>
+        <v>744.1284294549</v>
       </c>
       <c r="S20">
-        <v>0.02359954409248873</v>
+        <v>0.002017620202297316</v>
       </c>
       <c r="T20">
-        <v>0.01317550335545398</v>
+        <v>0.001211928931911733</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>61.32929799999999</v>
+        <v>3.746194</v>
       </c>
       <c r="H21">
-        <v>122.658596</v>
+        <v>7.492388</v>
       </c>
       <c r="I21">
-        <v>0.04076800889308754</v>
+        <v>0.002592189307228184</v>
       </c>
       <c r="J21">
-        <v>0.02755310095024899</v>
+        <v>0.001729620706252225</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.239195333333334</v>
+        <v>2.699147</v>
       </c>
       <c r="N21">
-        <v>15.717586</v>
+        <v>8.097441</v>
       </c>
       <c r="O21">
-        <v>0.1713541150096253</v>
+        <v>0.04230596431845346</v>
       </c>
       <c r="P21">
-        <v>0.2123236726894799</v>
+        <v>0.05712765960824214</v>
       </c>
       <c r="Q21">
-        <v>321.3161718782093</v>
+        <v>10.111528296518</v>
       </c>
       <c r="R21">
-        <v>1927.897031269256</v>
+        <v>60.669169779108</v>
       </c>
       <c r="S21">
-        <v>0.00698576608457955</v>
+        <v>0.0001096650683382721</v>
       </c>
       <c r="T21">
-        <v>0.005850175587740864</v>
+        <v>9.880918295814448E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>1.093437</v>
+        <v>1.061691666666667</v>
       </c>
       <c r="H22">
-        <v>3.280311</v>
+        <v>3.185075</v>
       </c>
       <c r="I22">
-        <v>0.000726850800412406</v>
+        <v>0.0007346404873603991</v>
       </c>
       <c r="J22">
-        <v>0.0007368642971521721</v>
+        <v>0.0007352758120596939</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>2.500998666666666</v>
+        <v>2.912114666666667</v>
       </c>
       <c r="N22">
-        <v>7.502996</v>
+        <v>8.736344000000001</v>
       </c>
       <c r="O22">
-        <v>0.08179813614512803</v>
+        <v>0.04564398277650125</v>
       </c>
       <c r="P22">
-        <v>0.1013554923061644</v>
+        <v>0.06163513710720567</v>
       </c>
       <c r="Q22">
-        <v>2.734684479084</v>
+        <v>3.091767873977779</v>
       </c>
       <c r="R22">
-        <v>24.612160311756</v>
+        <v>27.8259108658</v>
       </c>
       <c r="S22">
-        <v>5.945504072932926E-05</v>
+        <v>3.353191775199854E-05</v>
       </c>
       <c r="T22">
-        <v>7.46852436006942E-05</v>
+        <v>4.531882548791122E-05</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>1.093437</v>
+        <v>1.061691666666667</v>
       </c>
       <c r="H23">
-        <v>3.280311</v>
+        <v>3.185075</v>
       </c>
       <c r="I23">
-        <v>0.000726850800412406</v>
+        <v>0.0007346404873603991</v>
       </c>
       <c r="J23">
-        <v>0.0007368642971521721</v>
+        <v>0.0007352758120596939</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.586944</v>
       </c>
       <c r="O23">
-        <v>0.02820302683245761</v>
+        <v>0.01351577128599483</v>
       </c>
       <c r="P23">
-        <v>0.03494617119461054</v>
+        <v>0.01825095808139687</v>
       </c>
       <c r="Q23">
-        <v>0.942886762176</v>
+        <v>0.9155122956444445</v>
       </c>
       <c r="R23">
-        <v>8.485980859584</v>
+        <v>8.239610660799999</v>
       </c>
       <c r="S23">
-        <v>2.049939262722437E-05</v>
+        <v>9.92923280459493E-06</v>
       </c>
       <c r="T23">
-        <v>2.575058587547618E-05</v>
+        <v>1.341948802416652E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>1.093437</v>
+        <v>1.061691666666667</v>
       </c>
       <c r="H24">
-        <v>3.280311</v>
+        <v>3.185075</v>
       </c>
       <c r="I24">
-        <v>0.000726850800412406</v>
+        <v>0.0007346404873603991</v>
       </c>
       <c r="J24">
-        <v>0.0007368642971521721</v>
+        <v>0.0007352758120596939</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.273522333333333</v>
+        <v>7.668087</v>
       </c>
       <c r="N24">
-        <v>12.820567</v>
+        <v>23.004261</v>
       </c>
       <c r="O24">
-        <v>0.1397706309484552</v>
+        <v>0.12018827244785</v>
       </c>
       <c r="P24">
-        <v>0.1731888008375807</v>
+        <v>0.1622956674765719</v>
       </c>
       <c r="Q24">
-        <v>4.672827439593</v>
+        <v>8.141144067175</v>
       </c>
       <c r="R24">
-        <v>42.055446956337</v>
+        <v>73.27029660457499</v>
       </c>
       <c r="S24">
-        <v>0.0001015923949790317</v>
+        <v>8.829517104609291E-05</v>
       </c>
       <c r="T24">
-        <v>0.0001276166440038114</v>
+        <v>0.0001193320786976065</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>1.093437</v>
+        <v>1.061691666666667</v>
       </c>
       <c r="H25">
-        <v>3.280311</v>
+        <v>3.185075</v>
       </c>
       <c r="I25">
-        <v>0.000726850800412406</v>
+        <v>0.0007346404873603991</v>
       </c>
       <c r="J25">
-        <v>0.0007368642971521721</v>
+        <v>0.0007352758120596939</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.6992215</v>
+        <v>49.6589625</v>
       </c>
       <c r="N25">
-        <v>35.398443</v>
+        <v>99.317925</v>
       </c>
       <c r="O25">
-        <v>0.5788740910643337</v>
+        <v>0.7783460091712006</v>
       </c>
       <c r="P25">
-        <v>0.4781858629721645</v>
+        <v>0.7006905777265834</v>
       </c>
       <c r="Q25">
-        <v>19.3529836592955</v>
+        <v>52.72250666156251</v>
       </c>
       <c r="R25">
-        <v>116.117901955773</v>
+        <v>316.335039969375</v>
       </c>
       <c r="S25">
-        <v>0.000420755096428115</v>
+        <v>0.0005718044915125524</v>
       </c>
       <c r="T25">
-        <v>0.0003523580898270889</v>
+        <v>0.0005152008335404896</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>1.093437</v>
+        <v>1.061691666666667</v>
       </c>
       <c r="H26">
-        <v>3.280311</v>
+        <v>3.185075</v>
       </c>
       <c r="I26">
-        <v>0.000726850800412406</v>
+        <v>0.0007346404873603991</v>
       </c>
       <c r="J26">
-        <v>0.0007368642971521721</v>
+        <v>0.0007352758120596939</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>5.239195333333334</v>
+        <v>2.699147</v>
       </c>
       <c r="N26">
-        <v>15.717586</v>
+        <v>8.097441</v>
       </c>
       <c r="O26">
-        <v>0.1713541150096253</v>
+        <v>0.04230596431845346</v>
       </c>
       <c r="P26">
-        <v>0.2123236726894799</v>
+        <v>0.05712765960824214</v>
       </c>
       <c r="Q26">
-        <v>5.728730027694001</v>
+        <v>2.865661877008333</v>
       </c>
       <c r="R26">
-        <v>51.558570249246</v>
+        <v>25.790956893075</v>
       </c>
       <c r="S26">
-        <v>0.0001245488756487056</v>
+        <v>3.10796742451603E-05</v>
       </c>
       <c r="T26">
-        <v>0.0001564537338451014</v>
+        <v>4.200458630952001E-05</v>
       </c>
     </row>
   </sheetData>
